--- a/classfiers/mega/svm/correlations.xlsx
+++ b/classfiers/mega/svm/correlations.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.612428277982258</v>
+        <v>0.6096505244762567</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1438636484744215</v>
+        <v>-0.1367422130588655</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1258916903555806</v>
+        <v>-0.1186689870125668</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2651193549680567</v>
+        <v>-0.2592242193826943</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6917763849762641</v>
+        <v>0.6883769364755326</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04331042147109299</v>
+        <v>0.05614947163802901</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4694594670538325</v>
+        <v>0.4579903937025925</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.08069902941881342</v>
+        <v>0.08337517124898762</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.007087139102349151</v>
+        <v>0.001867733131263768</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6552737288385413</v>
+        <v>0.6523720528316318</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1880965662969901</v>
+        <v>-0.1910778877994984</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4313663492821697</v>
+        <v>0.4316783892352035</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4737235048931053</v>
+        <v>0.470779008976571</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.2554379441188391</v>
+        <v>-0.2532486935825972</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.2624886052853545</v>
+        <v>-0.2612487857077326</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.3073167428962215</v>
+        <v>-0.3063292788498357</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.3060862009181357</v>
+        <v>-0.3051297088521213</v>
       </c>
     </row>
   </sheetData>
